--- a/biology/Zoologie/Cordulegastridae/Cordulegastridae.xlsx
+++ b/biology/Zoologie/Cordulegastridae/Cordulegastridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Cordulegastridae ou Cordulegastridés fait partie des Anisoptères dans l'ordre des Odonates. Anciennement, cette famille était considérée comme une sous-famille des Libellulidae. Elle comprend des libellules sombres de grande taille marquées de bandes jaunes[1]. On les retrouve le long des ruisseaux forestiers volant à la surface de l'eau.  
-Les Cordulegastridae déposent habituellement leurs œufs dans une eau peu profonde à substrat sableux. Lors de la ponte, la femelle place son corps à la verticale et trempe le bout de son abdomen dans l'eau afin d'y déposer ses œufs[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Cordulegastridae ou Cordulegastridés fait partie des Anisoptères dans l'ordre des Odonates. Anciennement, cette famille était considérée comme une sous-famille des Libellulidae. Elle comprend des libellules sombres de grande taille marquées de bandes jaunes. On les retrouve le long des ruisseaux forestiers volant à la surface de l'eau.  
+Les Cordulegastridae déposent habituellement leurs œufs dans une eau peu profonde à substrat sableux. Lors de la ponte, la femelle place son corps à la verticale et trempe le bout de son abdomen dans l'eau afin d'y déposer ses œufs.
 Le nom Cordulegastridae vient du grec Kordylinus qui veut dire 'forme de massue' et Gaster, 'ventre'. 
 </t>
         </is>
@@ -513,13 +525,15 @@
           <t>Listes des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (19 janvier 2023)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (19 janvier 2023) :
 Anotogaster Selys, 1854
 Cordulegaster Leach, 1815 - seul genre européen
 Neallogaster Cowley, 1934
-Selon Catalogue of Life                                   (19 janvier 2023)[4] :
+Selon Catalogue of Life                                   (19 janvier 2023) :
 Anotogaster Selys, 1854
 Cordulegaster Leach in Brewster, 1815
 Kuldanagaster Yosuf &amp; Yonus, 1974
